--- a/com.backbase.dockers/Test Excel Files/NewComputerTestData.xlsx
+++ b/com.backbase.dockers/Test Excel Files/NewComputerTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Introducation Date</t>
   </si>
@@ -42,10 +42,7 @@
     <t>Computer Name</t>
   </si>
   <si>
-    <t>Solaris XYZ Contact Series</t>
-  </si>
-  <si>
-    <t>Solaris123 XYZ Contact Series Power</t>
+    <t>Solaris XYZ Contact Series1238</t>
   </si>
 </sst>
 </file>
@@ -387,15 +384,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="17.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="17.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
@@ -432,20 +429,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/com.backbase.dockers/Test Excel Files/NewComputerTestData.xlsx
+++ b/com.backbase.dockers/Test Excel Files/NewComputerTestData.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
